--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA85599-9911-4611-A283-28D7B34AF920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A855A20-FC18-4DCF-AFC1-9E4BABBB87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="삼성전자" sheetId="1" r:id="rId1"/>
+    <sheet name="005930" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>23-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>법인세율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +222,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,73 +256,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -316,23 +276,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -615,29 +575,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -685,57 +648,57 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f>258935494-C4-C5-C6</f>
         <v>67779938</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f>180388580-D4-D5-D6</f>
         <v>46115571</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f>71979938-E4-E5-E6</f>
         <v>18839650</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <f>6566976-F4-F5-F6</f>
         <v>2824717</v>
       </c>
-      <c r="G3" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H3" s="6">
         <f>F3*(1-G3)</f>
         <v>2047919.825</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="8">
         <f>35532411-I4-I5-I6</f>
         <v>9063346</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <f>3134148-J4-J5-J6</f>
         <v>771036</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <f>54916362-K4-K5-K6</f>
         <v>16629676</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L23" si="0">P3-P4</f>
+      <c r="L3" s="6">
+        <f>P3-P4</f>
         <v>-12596315</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M20" si="1">H3+I3+J3-K3-L3</f>
+      <c r="M3" s="6">
+        <f>H3+I3+J3-K3-L3</f>
         <v>7848940.8249999993</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="8">
         <v>195936557</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="8">
         <v>75719452</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P19" si="2">N3-O3</f>
+      <c r="P3" s="9">
+        <f>N3-O3</f>
         <v>120217105</v>
       </c>
     </row>
@@ -743,53 +706,53 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>67404652</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>46618726</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="8">
         <v>18352392</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
         <v>2433534</v>
       </c>
-      <c r="G4" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H28" si="3">F4*(1-G4)</f>
+      <c r="G4" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="6">
+        <f>F4*(1-G4)</f>
         <v>1764312.15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="8">
         <f>26469065-I5-I6</f>
         <v>8900426</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="8">
         <f>2363112-J5-J6</f>
         <v>786661</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <f>38286686-K5-K6</f>
         <v>11987374</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
+      <c r="L4" s="6">
+        <f>P4-P5</f>
         <v>-381315</v>
       </c>
-      <c r="M4" s="2">
-        <f t="shared" si="1"/>
+      <c r="M4" s="6">
+        <f>H4+I4+J4-K4-L4</f>
         <v>-154659.84999999963</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="8">
         <v>206438600</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="8">
         <v>73625180</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" si="2"/>
+      <c r="P4" s="9">
+        <f>N4-O4</f>
         <v>132813420</v>
       </c>
     </row>
@@ -797,53 +760,53 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>60005533</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>41647190</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <v>17689796</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <v>668547</v>
       </c>
-      <c r="G5" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="3"/>
+      <c r="G5" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <f>F5*(1-G5)</f>
         <v>484696.57500000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="8">
         <f>17568639-I6</f>
         <v>8767744</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f>1576451-J6</f>
         <v>790853</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <f>26299312-K6</f>
         <v>14955979</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
+      <c r="L5" s="6">
+        <f>P5-P6</f>
         <v>-5189958</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
+      <c r="M5" s="6">
+        <f>H5+I5+J5-K5-L5</f>
         <v>277272.57499999925</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="8">
         <v>203975373</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="8">
         <v>70780638</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" si="2"/>
+      <c r="P5" s="9">
+        <f>N5-O5</f>
         <v>133194735</v>
       </c>
     </row>
@@ -851,109 +814,109 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>63745371</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <v>46007093</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="8">
         <v>17098100</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>640178</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
+      <c r="G6" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H6" s="6">
+        <f>F6*(1-G6)</f>
         <v>464129.05</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="8">
         <v>8800895</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="10">
         <v>785598</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="10">
         <v>11343333</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
+      <c r="L6" s="6">
+        <f>P6-P7</f>
         <v>-1741036</v>
       </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
+      <c r="M6" s="6">
+        <f>H6+I6+J6-K6-L6</f>
         <v>448325.05000000075</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="8">
         <v>214442141</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="8">
         <v>76057448</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="2"/>
+      <c r="P6" s="9">
+        <f>N6-O6</f>
         <v>138384693</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f>302231360-C8-C9-C10</f>
         <v>70464575</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f>190041770-D8-D9-D10</f>
         <v>48627728</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f>68812960-E8-E9-E10</f>
         <v>17530716</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <f>43376630-F8-F9-F10</f>
         <v>4306131</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
+      <c r="G7" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <f>F7*(1-G7)</f>
         <v>3121944.9750000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <f>35952098-I8-I9-I10</f>
         <v>8843137</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <f>3155561-J8-J9-J10</f>
         <v>805921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <f>55226960-K8-K9-K10</f>
         <v>21125529</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
+      <c r="L7" s="6">
+        <f>P7-P8</f>
         <v>-25469239</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
+      <c r="M7" s="6">
+        <f>H7+I7+J7-K7-L7</f>
         <v>17114712.975000001</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="8">
         <v>218470581</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="8">
         <v>78344852</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" si="2"/>
+      <c r="P7" s="9">
+        <f>N7-O7</f>
         <v>140125729</v>
       </c>
     </row>
@@ -961,53 +924,53 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>76781680</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>48072237</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="8">
         <v>17857398</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>10852045</v>
       </c>
-      <c r="G8" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
+      <c r="G8" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <f>F8*(1-G8)</f>
         <v>7867732.625</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <f>27108961-I9-I10</f>
         <v>9031116</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="8">
         <f>2349640-J9-J10</f>
         <v>806611</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <f>34101431-K9-K10</f>
         <v>13347026</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
+      <c r="L8" s="6">
+        <f>P8-P9</f>
         <v>12669745</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
+      <c r="M8" s="6">
+        <f>H8+I8+J8-K8-L8</f>
         <v>-8311311.375</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="8">
         <v>250880637</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="8">
         <v>85285669</v>
       </c>
-      <c r="P8" s="6">
-        <f t="shared" si="2"/>
+      <c r="P8" s="9">
+        <f>N8-O8</f>
         <v>165594968</v>
       </c>
     </row>
@@ -1015,53 +978,53 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>77203607</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>46269748</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>16836814</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <v>14097045</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
+      <c r="G9" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H9" s="6">
+        <f>F9*(1-G9)</f>
         <v>10220357.625</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="8">
         <f>18077845-I10</f>
         <v>9068814</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <f>1543029-J10</f>
         <v>772552</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="6">
         <f>20754405-K10</f>
         <v>12655538</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
+      <c r="L9" s="6">
+        <f>P9-P10</f>
         <v>11019842</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
+      <c r="M9" s="6">
+        <f>H9+I9+J9-K9-L9</f>
         <v>-3613656.375</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="8">
         <v>236287491</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="8">
         <v>83362268</v>
       </c>
-      <c r="P9" s="6">
-        <f t="shared" si="2"/>
+      <c r="P9" s="9">
+        <f>N9-O9</f>
         <v>152925223</v>
       </c>
     </row>
@@ -1069,50 +1032,50 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>77781498</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>47072057</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>16588032</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="8">
         <v>14121409</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
+      <c r="G10" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <f>F10*(1-G10)</f>
         <v>10238021.525</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="8">
         <v>9009031</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="8">
         <v>770477</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="8">
         <v>8098867</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
+      <c r="L10" s="6">
+        <f>P10-P11</f>
         <v>11859329</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
+      <c r="M10" s="6">
+        <f>H10+I10+J10-K10-L10</f>
         <v>59333.52499999851</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="8">
         <v>232369082</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="8">
         <v>90463701</v>
       </c>
-      <c r="P10" s="6">
-        <f t="shared" si="2"/>
+      <c r="P10" s="9">
+        <f>N10-O10</f>
         <v>141905381</v>
       </c>
     </row>
@@ -1120,57 +1083,57 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f>279604799-C12-C13-C14</f>
         <v>76565524</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <f>166411342-D12-D13-D14</f>
         <v>44946555</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <f>61559601-E12-E13-E14</f>
         <v>17752257</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <f>51633856-F12-F13-F14</f>
         <v>13866712</v>
       </c>
-      <c r="G11" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
+      <c r="G11" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H11" s="6">
+        <f>F11*(1-G11)</f>
         <v>10053366.199999999</v>
       </c>
-      <c r="I11" s="3">
-        <f>20164109-I12-I13-I14</f>
-        <v>-2256530</v>
-      </c>
-      <c r="J11" s="2">
-        <f>2391770-J12-J13-J14</f>
-        <v>166880</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="8">
+        <f>31285209-I12-I13-I14</f>
+        <v>8864570</v>
+      </c>
+      <c r="J11" s="6">
+        <f>2962152-J12-J13-J14</f>
+        <v>737262</v>
+      </c>
+      <c r="K11" s="8">
         <f>49965164-K12-K13-K14</f>
         <v>15692542</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
+      <c r="L11" s="6">
+        <f>P11-P12</f>
         <v>-875003</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>-6853822.8000000007</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="M11" s="6">
+        <f>H11+I11+J11-K11-L11</f>
+        <v>4837659.1999999993</v>
+      </c>
+      <c r="N11" s="8">
         <v>218163185</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="8">
         <v>88117133</v>
       </c>
-      <c r="P11" s="6">
-        <f t="shared" si="2"/>
+      <c r="P11" s="9">
+        <f>N11-O11</f>
         <v>130046052</v>
       </c>
     </row>
@@ -1178,53 +1141,53 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>73979187</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>42898871</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>15262785</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>15817531</v>
       </c>
-      <c r="G12" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
+      <c r="G12" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <f>F12*(1-G12)</f>
         <v>11467709.975</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="6">
         <f>22420639-I13-I14</f>
         <v>8059814</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="6">
         <f>2224890-J13-J14</f>
         <v>753035</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="6">
         <f>34272622-K13-K14</f>
         <v>10216715</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
+      <c r="L12" s="6">
+        <f>P12-P13</f>
         <v>12263982</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
+      <c r="M12" s="6">
+        <f>H12+I12+J12-K12-L12</f>
         <v>-2200138.0249999985</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="8">
         <v>212793019</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="8">
         <v>81871964</v>
       </c>
-      <c r="P12" s="6">
-        <f t="shared" si="2"/>
+      <c r="P12" s="9">
+        <f>N12-O12</f>
         <v>130921055</v>
       </c>
     </row>
@@ -1232,53 +1195,53 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>63671585</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>37065931</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>14038909</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>12566745</v>
       </c>
-      <c r="G13" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
+      <c r="G13" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H13" s="6">
+        <f>F13*(1-G13)</f>
         <v>9110890.125</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="6">
         <f>14360825-I14</f>
         <v>7213089</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="6">
         <f>1471855-J14</f>
         <v>776313</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="6">
         <f>24055907-K14</f>
         <v>13879797</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
+      <c r="L13" s="6">
+        <f>P13-P14</f>
         <v>-388818</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
+      <c r="M13" s="6">
+        <f>H13+I13+J13-K13-L13</f>
         <v>3609313.125</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="8">
         <v>191118524</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="8">
         <v>72461451</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" si="2"/>
+      <c r="P13" s="9">
+        <f>N13-O13</f>
         <v>118657073</v>
       </c>
     </row>
@@ -1286,50 +1249,50 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>65388503</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="8">
         <v>41499985</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="8">
         <v>14505650</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="8">
         <v>9382868</v>
       </c>
-      <c r="G14" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
+      <c r="G14" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <f>F14*(1-G14)</f>
         <v>6802579.2999999998</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="8">
         <v>7147736</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="8">
         <v>695542</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="8">
         <v>10176110</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
+      <c r="L14" s="6">
+        <f>P14-P15</f>
         <v>-3565337</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
+      <c r="M14" s="6">
+        <f>H14+I14+J14-K14-L14</f>
         <v>8035084.3000000007</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="8">
         <v>209155353</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="8">
         <v>90109462</v>
       </c>
-      <c r="P14" s="6">
-        <f t="shared" si="2"/>
+      <c r="P14" s="9">
+        <f>N14-O14</f>
         <v>119045891</v>
       </c>
     </row>
@@ -1337,49 +1300,57 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <f>236806988-C16-C17-C18</f>
         <v>61551508</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <f>144488296-D16-D17-D18</f>
         <v>37804928</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <f>56324816-E16-E17-E18</f>
         <v>14699579</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="8">
         <f>35993876-F16-F17-F18</f>
         <v>9047001</v>
       </c>
-      <c r="G15" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
+      <c r="G15" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <f>F15*(1-G15)</f>
         <v>6559075.7249999996</v>
       </c>
-      <c r="K15" s="2">
+      <c r="I15" s="6">
+        <f>27115735-I16-I17-I18</f>
+        <v>7080813</v>
+      </c>
+      <c r="J15" s="6">
+        <f>3219881-J16-J17-J18</f>
+        <v>795435</v>
+      </c>
+      <c r="K15" s="6">
         <f>39411614-K16-K17-K18</f>
         <v>13200873</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>122611228</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>-129253025.27500001</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="L15" s="6">
+        <f>P15-P16</f>
+        <v>-7977280</v>
+      </c>
+      <c r="M15" s="6">
+        <f>H15+I15+J15-K15-L15</f>
+        <v>9211730.7249999996</v>
+      </c>
+      <c r="N15" s="8">
         <v>198215579</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="8">
         <v>75604351</v>
       </c>
-      <c r="P15" s="6">
-        <f t="shared" si="2"/>
+      <c r="P15" s="9">
+        <f>N15-O15</f>
         <v>122611228</v>
       </c>
     </row>
@@ -1387,171 +1358,216 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>66964160</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="8">
         <v>39970476</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>14640446</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="8">
         <v>12353238</v>
       </c>
-      <c r="G16" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H16" s="6">
         <f>F16*(1-G16)</f>
         <v>8956097.5499999989</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="6">
         <f>20034922-I17-I18</f>
         <v>6835367</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <f>2424446-J17-J18</f>
         <v>800067</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <f>26210741-K17-K18</f>
         <v>8753644</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>7837887.5499999989</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="L16" s="6">
+        <f>P16-P17</f>
+        <v>6315384</v>
+      </c>
+      <c r="M16" s="6">
+        <f>H16+I16+J16-K16-L16</f>
+        <v>1522503.5499999989</v>
+      </c>
+      <c r="N16" s="8">
+        <v>203634913</v>
+      </c>
+      <c r="O16" s="8">
+        <v>73046405</v>
+      </c>
+      <c r="P16" s="9">
+        <f>N16-O16</f>
+        <v>130588508</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>52966142</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="8">
         <v>31906198</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="8">
         <v>12913652</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="8">
         <v>8146292</v>
       </c>
-      <c r="G17" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="3"/>
+      <c r="G17" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f>F17*(1-G17)</f>
         <v>5906061.7000000002</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="6">
         <f>13199555-I18</f>
         <v>6608388</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="6">
         <f>1624379-J18</f>
         <v>809941</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="6">
         <f>17457097-K18</f>
         <v>9929008</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>3395382.6999999993</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="L17" s="6">
+        <f>P17-P18</f>
+        <v>2296666</v>
+      </c>
+      <c r="M17" s="6">
+        <f>H17+I17+J17-K17-L17</f>
+        <v>1098716.6999999993</v>
+      </c>
+      <c r="N17" s="8">
+        <v>186136845</v>
+      </c>
+      <c r="O17" s="8">
+        <v>61863721</v>
+      </c>
+      <c r="P17" s="9">
+        <f>N17-O17</f>
+        <v>124273124</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>55325178</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="8">
         <v>34806694</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="8">
         <v>14071139</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="8">
         <v>6447345</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="3"/>
+      <c r="G18" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <f>F18*(1-G18)</f>
         <v>4674325.125</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="8">
         <v>6591167</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="8">
         <v>814438</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="8">
         <v>7528089</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>-117602496</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="1"/>
-        <v>122154337.125</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="L18" s="6">
+        <f>P18-P19</f>
+        <v>4373962</v>
+      </c>
+      <c r="M18" s="6">
+        <f>H18+I18+J18-K18-L18</f>
+        <v>177879.125</v>
+      </c>
+      <c r="N18" s="8">
+        <v>186739748</v>
+      </c>
+      <c r="O18" s="8">
+        <v>64763290</v>
+      </c>
+      <c r="P18" s="9">
+        <f>N18-O18</f>
+        <v>121976458</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>117602496</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="1"/>
-        <v>-117602496</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="C19" s="8">
+        <f>230400881-C20-C21-C22</f>
+        <v>59884760</v>
+      </c>
+      <c r="D19" s="6">
+        <f>147239549-D20-D21-D22</f>
+        <v>38554523</v>
+      </c>
+      <c r="E19" s="6">
+        <f>55392823-E20-E21-E22</f>
+        <v>14169967</v>
+      </c>
+      <c r="F19" s="6">
+        <f>27768509-F20-F21-F22</f>
+        <v>7160270</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H19" s="6">
+        <f>F19*(1-G19)</f>
+        <v>5191195.75</v>
+      </c>
+      <c r="I19" s="8">
+        <f>26573816-I20-I21-I22</f>
+        <v>6546933</v>
+      </c>
+      <c r="J19" s="6">
+        <f>3023822-J20-J21-J22</f>
+        <v>2196901</v>
+      </c>
+      <c r="K19" s="6">
+        <f>28020080-K20-K21-K22</f>
+        <v>10344718</v>
+      </c>
+      <c r="L19" s="6">
+        <f>P19-P20</f>
+        <v>-5136446</v>
+      </c>
+      <c r="M19" s="6">
+        <f>H19+I19+J19-K19-L19</f>
+        <v>8726757.75</v>
+      </c>
+      <c r="N19" s="8">
         <v>181385260</v>
       </c>
       <c r="O19" s="10">
         <v>63782764</v>
       </c>
-      <c r="P19" s="6">
-        <f t="shared" si="2"/>
+      <c r="P19" s="9">
+        <f>N19-O19</f>
         <v>117602496</v>
       </c>
     </row>
@@ -1559,115 +1575,198 @@
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="C20" s="8">
+        <v>62003471</v>
+      </c>
+      <c r="D20" s="8">
+        <v>39993890</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14231689</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7777892</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H20" s="6">
+        <f>F20*(1-G20)</f>
+        <v>5638971.7000000002</v>
+      </c>
+      <c r="I20" s="6">
+        <f>20026883-I21-I22</f>
+        <v>6545815</v>
+      </c>
+      <c r="J20" s="6">
+        <f>826921-J21-J22</f>
+        <v>321745</v>
+      </c>
+      <c r="K20" s="8">
+        <f>17675362-K21-K22</f>
+        <v>6453743</v>
+      </c>
+      <c r="L20" s="6">
+        <f>P20-P21</f>
+        <v>8614735</v>
+      </c>
+      <c r="M20" s="6">
+        <f>H20+I20+J20-K20-L20</f>
+        <v>-2561946.3000000007</v>
+      </c>
+      <c r="N20" s="8">
+        <v>186042134</v>
+      </c>
+      <c r="O20" s="8">
+        <v>63303192</v>
+      </c>
+      <c r="P20" s="9">
+        <f>N20-O20</f>
+        <v>122738942</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C21" s="8">
+        <v>56127104</v>
+      </c>
+      <c r="D21" s="8">
+        <v>35944684</v>
+      </c>
+      <c r="E21" s="8">
+        <v>13585355</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6597065</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H21" s="6">
+        <f>F21*(1-G21)</f>
+        <v>4782872.125</v>
+      </c>
+      <c r="I21" s="6">
+        <f>13481068-I22</f>
+        <v>6640252</v>
+      </c>
+      <c r="J21" s="6">
+        <f>505176-J22</f>
+        <v>250448</v>
+      </c>
+      <c r="K21" s="6">
+        <f>11221619-K22</f>
+        <v>6512102</v>
+      </c>
+      <c r="L21" s="6">
+        <f>P21-P22</f>
+        <v>4089774</v>
+      </c>
+      <c r="M21" s="6">
+        <f>H21+I21+J21-K21-L21</f>
+        <v>1071696.125</v>
+      </c>
+      <c r="N21" s="8">
+        <v>173433478</v>
+      </c>
+      <c r="O21" s="8">
+        <v>59309271</v>
+      </c>
+      <c r="P21" s="9">
+        <f>N21-O21</f>
+        <v>114124207</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C22" s="8">
+        <v>52385546</v>
+      </c>
+      <c r="D22" s="8">
+        <v>32746452</v>
+      </c>
+      <c r="E22" s="8">
+        <v>13405812</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6233282</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H22" s="6">
+        <f>F22*(1-G22)</f>
+        <v>4519129.45</v>
+      </c>
+      <c r="I22" s="8">
+        <v>6840816</v>
+      </c>
+      <c r="J22" s="8">
+        <v>254728</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4709517</v>
+      </c>
+      <c r="L22" s="6">
+        <f>P22-P23</f>
+        <v>4418519</v>
+      </c>
+      <c r="M22" s="6">
+        <f>H22+I22+J22-K22-L22</f>
+        <v>2486637.4499999993</v>
+      </c>
+      <c r="N22" s="8">
+        <v>177388524</v>
+      </c>
+      <c r="O22" s="8">
+        <v>67354091</v>
+      </c>
+      <c r="P22" s="9">
+        <f>N22-O22</f>
+        <v>110034433</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="G23" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="3">
+        <v>174697424</v>
+      </c>
+      <c r="O23" s="3">
+        <v>69081510</v>
+      </c>
+      <c r="P23" s="11">
+        <f>N23-O23</f>
+        <v>105615914</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="G24" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="G25" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="G26" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="G27" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="G28" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A855A20-FC18-4DCF-AFC1-9E4BABBB87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57347B89-BC4E-453F-A12B-926C479A9122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>23-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>분기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,16 +293,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q28"/>
+  <dimension ref="B2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -594,10 +606,12 @@
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -643,8 +657,17 @@
       <c r="P2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -668,7 +691,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H3" s="6">
-        <f>F3*(1-G3)</f>
+        <f t="shared" ref="H3:H22" si="0">F3*(1-G3)</f>
         <v>2047919.825</v>
       </c>
       <c r="I3" s="8">
@@ -684,11 +707,11 @@
         <v>16629676</v>
       </c>
       <c r="L3" s="6">
-        <f>P3-P4</f>
+        <f t="shared" ref="L3:L22" si="1">P3-P4</f>
         <v>-12596315</v>
       </c>
       <c r="M3" s="6">
-        <f>H3+I3+J3-K3-L3</f>
+        <f t="shared" ref="M3:M22" si="2">H3+I3+J3-K3-L3</f>
         <v>7848940.8249999993</v>
       </c>
       <c r="N3" s="8">
@@ -698,11 +721,20 @@
         <v>75719452</v>
       </c>
       <c r="P3" s="9">
-        <f>N3-O3</f>
+        <f t="shared" ref="P3:P23" si="3">N3-O3</f>
         <v>120217105</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q3" s="3">
+        <v>455905980</v>
+      </c>
+      <c r="R3" s="3">
+        <v>363677865</v>
+      </c>
+      <c r="S3" s="3">
+        <v>92228115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,7 +754,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H4" s="6">
-        <f>F4*(1-G4)</f>
+        <f t="shared" si="0"/>
         <v>1764312.15</v>
       </c>
       <c r="I4" s="8">
@@ -738,11 +770,11 @@
         <v>11987374</v>
       </c>
       <c r="L4" s="6">
-        <f>P4-P5</f>
+        <f t="shared" si="1"/>
         <v>-381315</v>
       </c>
       <c r="M4" s="6">
-        <f>H4+I4+J4-K4-L4</f>
+        <f t="shared" si="2"/>
         <v>-154659.84999999963</v>
       </c>
       <c r="N4" s="8">
@@ -752,11 +784,11 @@
         <v>73625180</v>
       </c>
       <c r="P4" s="9">
-        <f>N4-O4</f>
+        <f t="shared" si="3"/>
         <v>132813420</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -776,7 +808,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H5" s="6">
-        <f>F5*(1-G5)</f>
+        <f t="shared" si="0"/>
         <v>484696.57500000001</v>
       </c>
       <c r="I5" s="8">
@@ -792,11 +824,11 @@
         <v>14955979</v>
       </c>
       <c r="L5" s="6">
-        <f>P5-P6</f>
+        <f t="shared" si="1"/>
         <v>-5189958</v>
       </c>
       <c r="M5" s="6">
-        <f>H5+I5+J5-K5-L5</f>
+        <f t="shared" si="2"/>
         <v>277272.57499999925</v>
       </c>
       <c r="N5" s="8">
@@ -806,11 +838,11 @@
         <v>70780638</v>
       </c>
       <c r="P5" s="9">
-        <f>N5-O5</f>
+        <f t="shared" si="3"/>
         <v>133194735</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +862,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H6" s="6">
-        <f>F6*(1-G6)</f>
+        <f t="shared" si="0"/>
         <v>464129.05</v>
       </c>
       <c r="I6" s="8">
@@ -843,11 +875,11 @@
         <v>11343333</v>
       </c>
       <c r="L6" s="6">
-        <f>P6-P7</f>
+        <f t="shared" si="1"/>
         <v>-1741036</v>
       </c>
       <c r="M6" s="6">
-        <f>H6+I6+J6-K6-L6</f>
+        <f t="shared" si="2"/>
         <v>448325.05000000075</v>
       </c>
       <c r="N6" s="8">
@@ -857,12 +889,12 @@
         <v>76057448</v>
       </c>
       <c r="P6" s="9">
-        <f>N6-O6</f>
+        <f t="shared" si="3"/>
         <v>138384693</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +918,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H7" s="6">
-        <f>F7*(1-G7)</f>
+        <f t="shared" si="0"/>
         <v>3121944.9750000001</v>
       </c>
       <c r="I7" s="6">
@@ -902,11 +934,11 @@
         <v>21125529</v>
       </c>
       <c r="L7" s="6">
-        <f>P7-P8</f>
+        <f t="shared" si="1"/>
         <v>-25469239</v>
       </c>
       <c r="M7" s="6">
-        <f>H7+I7+J7-K7-L7</f>
+        <f t="shared" si="2"/>
         <v>17114712.975000001</v>
       </c>
       <c r="N7" s="8">
@@ -916,11 +948,11 @@
         <v>78344852</v>
       </c>
       <c r="P7" s="9">
-        <f>N7-O7</f>
+        <f t="shared" si="3"/>
         <v>140125729</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,7 +972,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H8" s="6">
-        <f>F8*(1-G8)</f>
+        <f t="shared" si="0"/>
         <v>7867732.625</v>
       </c>
       <c r="I8" s="8">
@@ -956,11 +988,11 @@
         <v>13347026</v>
       </c>
       <c r="L8" s="6">
-        <f>P8-P9</f>
+        <f t="shared" si="1"/>
         <v>12669745</v>
       </c>
       <c r="M8" s="6">
-        <f>H8+I8+J8-K8-L8</f>
+        <f t="shared" si="2"/>
         <v>-8311311.375</v>
       </c>
       <c r="N8" s="8">
@@ -970,11 +1002,11 @@
         <v>85285669</v>
       </c>
       <c r="P8" s="9">
-        <f>N8-O8</f>
+        <f t="shared" si="3"/>
         <v>165594968</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H9" s="6">
-        <f>F9*(1-G9)</f>
+        <f t="shared" si="0"/>
         <v>10220357.625</v>
       </c>
       <c r="I9" s="8">
@@ -1010,11 +1042,11 @@
         <v>12655538</v>
       </c>
       <c r="L9" s="6">
-        <f>P9-P10</f>
+        <f t="shared" si="1"/>
         <v>11019842</v>
       </c>
       <c r="M9" s="6">
-        <f>H9+I9+J9-K9-L9</f>
+        <f t="shared" si="2"/>
         <v>-3613656.375</v>
       </c>
       <c r="N9" s="8">
@@ -1024,11 +1056,11 @@
         <v>83362268</v>
       </c>
       <c r="P9" s="9">
-        <f>N9-O9</f>
+        <f t="shared" si="3"/>
         <v>152925223</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1080,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H10" s="6">
-        <f>F10*(1-G10)</f>
+        <f t="shared" si="0"/>
         <v>10238021.525</v>
       </c>
       <c r="I10" s="8">
@@ -1061,11 +1093,11 @@
         <v>8098867</v>
       </c>
       <c r="L10" s="6">
-        <f>P10-P11</f>
+        <f t="shared" si="1"/>
         <v>11859329</v>
       </c>
       <c r="M10" s="6">
-        <f>H10+I10+J10-K10-L10</f>
+        <f t="shared" si="2"/>
         <v>59333.52499999851</v>
       </c>
       <c r="N10" s="8">
@@ -1075,11 +1107,11 @@
         <v>90463701</v>
       </c>
       <c r="P10" s="9">
-        <f>N10-O10</f>
+        <f t="shared" si="3"/>
         <v>141905381</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1135,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H11" s="6">
-        <f>F11*(1-G11)</f>
+        <f t="shared" si="0"/>
         <v>10053366.199999999</v>
       </c>
       <c r="I11" s="8">
@@ -1119,11 +1151,11 @@
         <v>15692542</v>
       </c>
       <c r="L11" s="6">
-        <f>P11-P12</f>
+        <f t="shared" si="1"/>
         <v>-875003</v>
       </c>
       <c r="M11" s="6">
-        <f>H11+I11+J11-K11-L11</f>
+        <f t="shared" si="2"/>
         <v>4837659.1999999993</v>
       </c>
       <c r="N11" s="8">
@@ -1133,11 +1165,11 @@
         <v>88117133</v>
       </c>
       <c r="P11" s="9">
-        <f>N11-O11</f>
+        <f t="shared" si="3"/>
         <v>130046052</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1189,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H12" s="6">
-        <f>F12*(1-G12)</f>
+        <f t="shared" si="0"/>
         <v>11467709.975</v>
       </c>
       <c r="I12" s="6">
@@ -1173,11 +1205,11 @@
         <v>10216715</v>
       </c>
       <c r="L12" s="6">
-        <f>P12-P13</f>
+        <f t="shared" si="1"/>
         <v>12263982</v>
       </c>
       <c r="M12" s="6">
-        <f>H12+I12+J12-K12-L12</f>
+        <f t="shared" si="2"/>
         <v>-2200138.0249999985</v>
       </c>
       <c r="N12" s="8">
@@ -1187,11 +1219,11 @@
         <v>81871964</v>
       </c>
       <c r="P12" s="9">
-        <f>N12-O12</f>
+        <f t="shared" si="3"/>
         <v>130921055</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1243,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H13" s="6">
-        <f>F13*(1-G13)</f>
+        <f t="shared" si="0"/>
         <v>9110890.125</v>
       </c>
       <c r="I13" s="6">
@@ -1227,11 +1259,11 @@
         <v>13879797</v>
       </c>
       <c r="L13" s="6">
-        <f>P13-P14</f>
+        <f t="shared" si="1"/>
         <v>-388818</v>
       </c>
       <c r="M13" s="6">
-        <f>H13+I13+J13-K13-L13</f>
+        <f t="shared" si="2"/>
         <v>3609313.125</v>
       </c>
       <c r="N13" s="8">
@@ -1241,11 +1273,11 @@
         <v>72461451</v>
       </c>
       <c r="P13" s="9">
-        <f>N13-O13</f>
+        <f t="shared" si="3"/>
         <v>118657073</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1297,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H14" s="6">
-        <f>F14*(1-G14)</f>
+        <f t="shared" si="0"/>
         <v>6802579.2999999998</v>
       </c>
       <c r="I14" s="8">
@@ -1278,11 +1310,11 @@
         <v>10176110</v>
       </c>
       <c r="L14" s="6">
-        <f>P14-P15</f>
+        <f t="shared" si="1"/>
         <v>-3565337</v>
       </c>
       <c r="M14" s="6">
-        <f>H14+I14+J14-K14-L14</f>
+        <f t="shared" si="2"/>
         <v>8035084.3000000007</v>
       </c>
       <c r="N14" s="8">
@@ -1292,11 +1324,11 @@
         <v>90109462</v>
       </c>
       <c r="P14" s="9">
-        <f>N14-O14</f>
+        <f t="shared" si="3"/>
         <v>119045891</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1352,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H15" s="6">
-        <f>F15*(1-G15)</f>
+        <f t="shared" si="0"/>
         <v>6559075.7249999996</v>
       </c>
       <c r="I15" s="6">
@@ -1336,11 +1368,11 @@
         <v>13200873</v>
       </c>
       <c r="L15" s="6">
-        <f>P15-P16</f>
+        <f t="shared" si="1"/>
         <v>-7977280</v>
       </c>
       <c r="M15" s="6">
-        <f>H15+I15+J15-K15-L15</f>
+        <f t="shared" si="2"/>
         <v>9211730.7249999996</v>
       </c>
       <c r="N15" s="8">
@@ -1350,11 +1382,11 @@
         <v>75604351</v>
       </c>
       <c r="P15" s="9">
-        <f>N15-O15</f>
+        <f t="shared" si="3"/>
         <v>122611228</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1406,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H16" s="6">
-        <f>F16*(1-G16)</f>
+        <f t="shared" si="0"/>
         <v>8956097.5499999989</v>
       </c>
       <c r="I16" s="6">
@@ -1390,11 +1422,11 @@
         <v>8753644</v>
       </c>
       <c r="L16" s="6">
-        <f>P16-P17</f>
+        <f t="shared" si="1"/>
         <v>6315384</v>
       </c>
       <c r="M16" s="6">
-        <f>H16+I16+J16-K16-L16</f>
+        <f t="shared" si="2"/>
         <v>1522503.5499999989</v>
       </c>
       <c r="N16" s="8">
@@ -1404,7 +1436,7 @@
         <v>73046405</v>
       </c>
       <c r="P16" s="9">
-        <f>N16-O16</f>
+        <f t="shared" si="3"/>
         <v>130588508</v>
       </c>
     </row>
@@ -1428,7 +1460,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H17" s="6">
-        <f>F17*(1-G17)</f>
+        <f t="shared" si="0"/>
         <v>5906061.7000000002</v>
       </c>
       <c r="I17" s="6">
@@ -1444,11 +1476,11 @@
         <v>9929008</v>
       </c>
       <c r="L17" s="6">
-        <f>P17-P18</f>
+        <f t="shared" si="1"/>
         <v>2296666</v>
       </c>
       <c r="M17" s="6">
-        <f>H17+I17+J17-K17-L17</f>
+        <f t="shared" si="2"/>
         <v>1098716.6999999993</v>
       </c>
       <c r="N17" s="8">
@@ -1458,7 +1490,7 @@
         <v>61863721</v>
       </c>
       <c r="P17" s="9">
-        <f>N17-O17</f>
+        <f t="shared" si="3"/>
         <v>124273124</v>
       </c>
     </row>
@@ -1482,7 +1514,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H18" s="6">
-        <f>F18*(1-G18)</f>
+        <f t="shared" si="0"/>
         <v>4674325.125</v>
       </c>
       <c r="I18" s="8">
@@ -1495,11 +1527,11 @@
         <v>7528089</v>
       </c>
       <c r="L18" s="6">
-        <f>P18-P19</f>
+        <f t="shared" si="1"/>
         <v>4373962</v>
       </c>
       <c r="M18" s="6">
-        <f>H18+I18+J18-K18-L18</f>
+        <f t="shared" si="2"/>
         <v>177879.125</v>
       </c>
       <c r="N18" s="8">
@@ -1509,7 +1541,7 @@
         <v>64763290</v>
       </c>
       <c r="P18" s="9">
-        <f>N18-O18</f>
+        <f t="shared" si="3"/>
         <v>121976458</v>
       </c>
     </row>
@@ -1537,7 +1569,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H19" s="6">
-        <f>F19*(1-G19)</f>
+        <f t="shared" si="0"/>
         <v>5191195.75</v>
       </c>
       <c r="I19" s="8">
@@ -1553,11 +1585,11 @@
         <v>10344718</v>
       </c>
       <c r="L19" s="6">
-        <f>P19-P20</f>
+        <f t="shared" si="1"/>
         <v>-5136446</v>
       </c>
       <c r="M19" s="6">
-        <f>H19+I19+J19-K19-L19</f>
+        <f t="shared" si="2"/>
         <v>8726757.75</v>
       </c>
       <c r="N19" s="8">
@@ -1567,7 +1599,7 @@
         <v>63782764</v>
       </c>
       <c r="P19" s="9">
-        <f>N19-O19</f>
+        <f t="shared" si="3"/>
         <v>117602496</v>
       </c>
     </row>
@@ -1591,7 +1623,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H20" s="6">
-        <f>F20*(1-G20)</f>
+        <f t="shared" si="0"/>
         <v>5638971.7000000002</v>
       </c>
       <c r="I20" s="6">
@@ -1607,11 +1639,11 @@
         <v>6453743</v>
       </c>
       <c r="L20" s="6">
-        <f>P20-P21</f>
+        <f t="shared" si="1"/>
         <v>8614735</v>
       </c>
       <c r="M20" s="6">
-        <f>H20+I20+J20-K20-L20</f>
+        <f t="shared" si="2"/>
         <v>-2561946.3000000007</v>
       </c>
       <c r="N20" s="8">
@@ -1621,7 +1653,7 @@
         <v>63303192</v>
       </c>
       <c r="P20" s="9">
-        <f>N20-O20</f>
+        <f t="shared" si="3"/>
         <v>122738942</v>
       </c>
     </row>
@@ -1645,7 +1677,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H21" s="6">
-        <f>F21*(1-G21)</f>
+        <f t="shared" si="0"/>
         <v>4782872.125</v>
       </c>
       <c r="I21" s="6">
@@ -1661,11 +1693,11 @@
         <v>6512102</v>
       </c>
       <c r="L21" s="6">
-        <f>P21-P22</f>
+        <f t="shared" si="1"/>
         <v>4089774</v>
       </c>
       <c r="M21" s="6">
-        <f>H21+I21+J21-K21-L21</f>
+        <f t="shared" si="2"/>
         <v>1071696.125</v>
       </c>
       <c r="N21" s="8">
@@ -1675,7 +1707,7 @@
         <v>59309271</v>
       </c>
       <c r="P21" s="9">
-        <f>N21-O21</f>
+        <f t="shared" si="3"/>
         <v>114124207</v>
       </c>
     </row>
@@ -1699,7 +1731,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="H22" s="6">
-        <f>F22*(1-G22)</f>
+        <f t="shared" si="0"/>
         <v>4519129.45</v>
       </c>
       <c r="I22" s="8">
@@ -1712,11 +1744,11 @@
         <v>4709517</v>
       </c>
       <c r="L22" s="6">
-        <f>P22-P23</f>
+        <f t="shared" si="1"/>
         <v>4418519</v>
       </c>
       <c r="M22" s="6">
-        <f>H22+I22+J22-K22-L22</f>
+        <f t="shared" si="2"/>
         <v>2486637.4499999993</v>
       </c>
       <c r="N22" s="8">
@@ -1726,7 +1758,7 @@
         <v>67354091</v>
       </c>
       <c r="P22" s="9">
-        <f>N22-O22</f>
+        <f t="shared" si="3"/>
         <v>110034433</v>
       </c>
     </row>
@@ -1742,7 +1774,7 @@
         <v>69081510</v>
       </c>
       <c r="P23" s="11">
-        <f>N23-O23</f>
+        <f t="shared" si="3"/>
         <v>105615914</v>
       </c>
     </row>

--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57347B89-BC4E-453F-A12B-926C479A9122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B47470-38FE-40CB-83E0-C2970C8150EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="005930" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>23-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비유동자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비유동부채</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S28"/>
+  <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -609,9 +617,11 @@
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -666,8 +676,14 @@
       <c r="S2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,8 +749,14 @@
       <c r="S3" s="3">
         <v>92228115</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="T3" s="3">
+        <v>259969423</v>
+      </c>
+      <c r="U3" s="3">
+        <v>16508663</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,7 +810,7 @@
         <v>132813420</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,7 +864,7 @@
         <v>133194735</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +916,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,7 +974,7 @@
         <v>140125729</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1028,7 @@
         <v>165594968</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>152925223</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>141905381</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>130046052</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1245,7 @@
         <v>130921055</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1299,7 @@
         <v>118657073</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>119045891</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>122611228</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>

--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B47470-38FE-40CB-83E0-C2970C8150EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E488B535-99A7-4155-BAF8-A71C85124698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E488B535-99A7-4155-BAF8-A71C85124698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F9E5A-872A-474C-A1A8-0280F93AFF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="005930" sheetId="1" r:id="rId1"/>
+    <sheet name="000660" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>23-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +197,31 @@
   <si>
     <t>비유동부채</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28834021 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17276137 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,843,696 </t>
+  </si>
+  <si>
+    <t>28,733,332 </t>
+  </si>
+  <si>
+    <t>26,907,075 </t>
+  </si>
+  <si>
+    <t>14,735,395 </t>
   </si>
 </sst>
 </file>
@@ -267,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -288,11 +314,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,6 +369,18 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -593,10 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1826,4 +1897,823 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C409B0E6-A363-4AB0-9C02-84B4D7634C26}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H22" si="0">F3*(1-G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L22" si="1">P3-P4</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M22" si="2">H3+I3+J3-K3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9">
+        <f t="shared" ref="P3:P23" si="3">N3-O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5088111</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6733410</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1757003</v>
+      </c>
+      <c r="F6" s="9">
+        <f>C6-D6-E6</f>
+        <v>-3402302</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>-2466668.9499999997</v>
+      </c>
+      <c r="I6" s="15">
+        <v>72714</v>
+      </c>
+      <c r="J6" s="15">
+        <v>54954</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1747787</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <f>N6-O6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15">
+        <v>12155653</v>
+      </c>
+      <c r="D10" s="15">
+        <v>6754457</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2537299</v>
+      </c>
+      <c r="F10" s="8">
+        <f>C10-D10-E10</f>
+        <v>2863897</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>2076325.325</v>
+      </c>
+      <c r="I10" s="15">
+        <v>62735</v>
+      </c>
+      <c r="J10" s="15">
+        <v>134919</v>
+      </c>
+      <c r="K10" s="15">
+        <v>5031915</v>
+      </c>
+      <c r="L10" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="34" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hw/서강대학부자료/ValuePoint/DCF_Basic_firmValuation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F9E5A-872A-474C-A1A8-0280F93AFF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFFB790-75CB-1845-862E-24F2647F1AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2820" windowWidth="16000" windowHeight="25600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="005930" sheetId="1" r:id="rId1"/>
     <sheet name="000660" sheetId="2" r:id="rId2"/>
+    <sheet name="005380" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>23-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,29 +200,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28834021 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17276137 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,843,696 </t>
-  </si>
-  <si>
-    <t>28,733,332 </t>
-  </si>
-  <si>
-    <t>26,907,075 </t>
-  </si>
-  <si>
-    <t>14,735,395 </t>
+    <t>46,826,413 </t>
   </si>
 </sst>
 </file>
@@ -231,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +260,38 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -348,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,18 +380,30 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -666,33 +689,33 @@
   </sheetPr>
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -754,7 +777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,11 +798,11 @@
         <v>2824717</v>
       </c>
       <c r="G3" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H22" si="0">F3*(1-G3)</f>
-        <v>2047919.825</v>
+        <v>2118537.75</v>
       </c>
       <c r="I3" s="8">
         <f>35532411-I4-I5-I6</f>
@@ -799,7 +822,7 @@
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M22" si="2">H3+I3+J3-K3-L3</f>
-        <v>7848940.8249999993</v>
+        <v>7919558.75</v>
       </c>
       <c r="N3" s="8">
         <v>195936557</v>
@@ -827,7 +850,7 @@
         <v>16508663</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -844,11 +867,11 @@
         <v>2433534</v>
       </c>
       <c r="G4" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>1764312.15</v>
+        <v>1825150.5</v>
       </c>
       <c r="I4" s="8">
         <f>26469065-I5-I6</f>
@@ -868,7 +891,7 @@
       </c>
       <c r="M4" s="6">
         <f t="shared" si="2"/>
-        <v>-154659.84999999963</v>
+        <v>-93821.5</v>
       </c>
       <c r="N4" s="8">
         <v>206438600</v>
@@ -881,7 +904,7 @@
         <v>132813420</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,11 +921,11 @@
         <v>668547</v>
       </c>
       <c r="G5" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>484696.57500000001</v>
+        <v>501410.25</v>
       </c>
       <c r="I5" s="8">
         <f>17568639-I6</f>
@@ -922,7 +945,7 @@
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>277272.57499999925</v>
+        <v>293986.25</v>
       </c>
       <c r="N5" s="8">
         <v>203975373</v>
@@ -935,7 +958,7 @@
         <v>133194735</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,11 +975,11 @@
         <v>640178</v>
       </c>
       <c r="G6" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>464129.05</v>
+        <v>480133.5</v>
       </c>
       <c r="I6" s="8">
         <v>8800895</v>
@@ -973,7 +996,7 @@
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>448325.05000000075</v>
+        <v>464329.5</v>
       </c>
       <c r="N6" s="8">
         <v>214442141</v>
@@ -987,7 +1010,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,11 +1031,11 @@
         <v>4306131</v>
       </c>
       <c r="G7" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>3121944.9750000001</v>
+        <v>3229598.25</v>
       </c>
       <c r="I7" s="6">
         <f>35952098-I8-I9-I10</f>
@@ -1032,7 +1055,7 @@
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>17114712.975000001</v>
+        <v>17222366.25</v>
       </c>
       <c r="N7" s="8">
         <v>218470581</v>
@@ -1045,7 +1068,7 @@
         <v>140125729</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,11 +1085,11 @@
         <v>10852045</v>
       </c>
       <c r="G8" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>7867732.625</v>
+        <v>8139033.75</v>
       </c>
       <c r="I8" s="8">
         <f>27108961-I9-I10</f>
@@ -1086,7 +1109,7 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
-        <v>-8311311.375</v>
+        <v>-8040010.25</v>
       </c>
       <c r="N8" s="8">
         <v>250880637</v>
@@ -1099,7 +1122,7 @@
         <v>165594968</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,11 +1139,11 @@
         <v>14097045</v>
       </c>
       <c r="G9" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>10220357.625</v>
+        <v>10572783.75</v>
       </c>
       <c r="I9" s="8">
         <f>18077845-I10</f>
@@ -1140,7 +1163,7 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
-        <v>-3613656.375</v>
+        <v>-3261230.25</v>
       </c>
       <c r="N9" s="8">
         <v>236287491</v>
@@ -1153,7 +1176,7 @@
         <v>152925223</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,11 +1193,11 @@
         <v>14121409</v>
       </c>
       <c r="G10" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>10238021.525</v>
+        <v>10591056.75</v>
       </c>
       <c r="I10" s="8">
         <v>9009031</v>
@@ -1191,7 +1214,7 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" si="2"/>
-        <v>59333.52499999851</v>
+        <v>412368.75</v>
       </c>
       <c r="N10" s="8">
         <v>232369082</v>
@@ -1204,7 +1227,7 @@
         <v>141905381</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1225,11 +1248,11 @@
         <v>13866712</v>
       </c>
       <c r="G11" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>10053366.199999999</v>
+        <v>10400034</v>
       </c>
       <c r="I11" s="8">
         <f>31285209-I12-I13-I14</f>
@@ -1249,7 +1272,7 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
-        <v>4837659.1999999993</v>
+        <v>5184327</v>
       </c>
       <c r="N11" s="8">
         <v>218163185</v>
@@ -1262,7 +1285,7 @@
         <v>130046052</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1279,11 +1302,11 @@
         <v>15817531</v>
       </c>
       <c r="G12" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>11467709.975</v>
+        <v>11863148.25</v>
       </c>
       <c r="I12" s="6">
         <f>22420639-I13-I14</f>
@@ -1303,7 +1326,7 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" si="2"/>
-        <v>-2200138.0249999985</v>
+        <v>-1804699.75</v>
       </c>
       <c r="N12" s="8">
         <v>212793019</v>
@@ -1316,7 +1339,7 @@
         <v>130921055</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:21">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,11 +1356,11 @@
         <v>12566745</v>
       </c>
       <c r="G13" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>9110890.125</v>
+        <v>9425058.75</v>
       </c>
       <c r="I13" s="6">
         <f>14360825-I14</f>
@@ -1357,7 +1380,7 @@
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
-        <v>3609313.125</v>
+        <v>3923481.75</v>
       </c>
       <c r="N13" s="8">
         <v>191118524</v>
@@ -1370,7 +1393,7 @@
         <v>118657073</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:21">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1387,11 +1410,11 @@
         <v>9382868</v>
       </c>
       <c r="G14" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>6802579.2999999998</v>
+        <v>7037151</v>
       </c>
       <c r="I14" s="8">
         <v>7147736</v>
@@ -1408,7 +1431,7 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" si="2"/>
-        <v>8035084.3000000007</v>
+        <v>8269656</v>
       </c>
       <c r="N14" s="8">
         <v>209155353</v>
@@ -1421,7 +1444,7 @@
         <v>119045891</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1442,11 +1465,11 @@
         <v>9047001</v>
       </c>
       <c r="G15" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>6559075.7249999996</v>
+        <v>6785250.75</v>
       </c>
       <c r="I15" s="6">
         <f>27115735-I16-I17-I18</f>
@@ -1466,7 +1489,7 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
-        <v>9211730.7249999996</v>
+        <v>9437905.75</v>
       </c>
       <c r="N15" s="8">
         <v>198215579</v>
@@ -1479,7 +1502,7 @@
         <v>122611228</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,11 +1519,11 @@
         <v>12353238</v>
       </c>
       <c r="G16" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>8956097.5499999989</v>
+        <v>9264928.5</v>
       </c>
       <c r="I16" s="6">
         <f>20034922-I17-I18</f>
@@ -1520,7 +1543,7 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" si="2"/>
-        <v>1522503.5499999989</v>
+        <v>1831334.5</v>
       </c>
       <c r="N16" s="8">
         <v>203634913</v>
@@ -1533,7 +1556,7 @@
         <v>130588508</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,11 +1573,11 @@
         <v>8146292</v>
       </c>
       <c r="G17" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>5906061.7000000002</v>
+        <v>6109719</v>
       </c>
       <c r="I17" s="6">
         <f>13199555-I18</f>
@@ -1574,7 +1597,7 @@
       </c>
       <c r="M17" s="6">
         <f t="shared" si="2"/>
-        <v>1098716.6999999993</v>
+        <v>1302374</v>
       </c>
       <c r="N17" s="8">
         <v>186136845</v>
@@ -1587,7 +1610,7 @@
         <v>124273124</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1604,11 +1627,11 @@
         <v>6447345</v>
       </c>
       <c r="G18" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="0"/>
-        <v>4674325.125</v>
+        <v>4835508.75</v>
       </c>
       <c r="I18" s="8">
         <v>6591167</v>
@@ -1625,7 +1648,7 @@
       </c>
       <c r="M18" s="6">
         <f t="shared" si="2"/>
-        <v>177879.125</v>
+        <v>339062.75</v>
       </c>
       <c r="N18" s="8">
         <v>186739748</v>
@@ -1638,7 +1661,7 @@
         <v>121976458</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1659,11 +1682,11 @@
         <v>7160270</v>
       </c>
       <c r="G19" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="0"/>
-        <v>5191195.75</v>
+        <v>5370202.5</v>
       </c>
       <c r="I19" s="8">
         <f>26573816-I20-I21-I22</f>
@@ -1683,7 +1706,7 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
-        <v>8726757.75</v>
+        <v>8905764.5</v>
       </c>
       <c r="N19" s="8">
         <v>181385260</v>
@@ -1696,7 +1719,7 @@
         <v>117602496</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1713,11 +1736,11 @@
         <v>7777892</v>
       </c>
       <c r="G20" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="0"/>
-        <v>5638971.7000000002</v>
+        <v>5833419</v>
       </c>
       <c r="I20" s="6">
         <f>20026883-I21-I22</f>
@@ -1737,7 +1760,7 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" si="2"/>
-        <v>-2561946.3000000007</v>
+        <v>-2367499</v>
       </c>
       <c r="N20" s="8">
         <v>186042134</v>
@@ -1750,7 +1773,7 @@
         <v>122738942</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1767,11 +1790,11 @@
         <v>6597065</v>
       </c>
       <c r="G21" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="0"/>
-        <v>4782872.125</v>
+        <v>4947798.75</v>
       </c>
       <c r="I21" s="6">
         <f>13481068-I22</f>
@@ -1791,7 +1814,7 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" si="2"/>
-        <v>1071696.125</v>
+        <v>1236622.75</v>
       </c>
       <c r="N21" s="8">
         <v>173433478</v>
@@ -1804,7 +1827,7 @@
         <v>114124207</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1821,11 +1844,11 @@
         <v>6233282</v>
       </c>
       <c r="G22" s="7">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="0"/>
-        <v>4519129.45</v>
+        <v>4674961.5</v>
       </c>
       <c r="I22" s="8">
         <v>6840816</v>
@@ -1842,7 +1865,7 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" si="2"/>
-        <v>2486637.4499999993</v>
+        <v>2642469.5</v>
       </c>
       <c r="N22" s="8">
         <v>177388524</v>
@@ -1855,7 +1878,7 @@
         <v>110034433</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16">
       <c r="B23" s="1"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1871,25 +1894,25 @@
         <v>105615914</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16">
       <c r="B24" s="1"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16">
       <c r="B25" s="1"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16">
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16">
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:16">
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
     </row>
@@ -1906,29 +1929,29 @@
   </sheetPr>
   <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="L1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1990,111 +2013,190 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H22" si="0">F3*(1-G3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L22" si="1">P3-P4</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M22" si="2">H3+I3+J3-K3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="C3" s="12">
+        <f>32765719-C4-C5-C6</f>
+        <v>11305504</v>
+      </c>
+      <c r="D3" s="12">
+        <f>33299167-D4-D5-D6</f>
+        <v>9079951</v>
+      </c>
+      <c r="E3" s="13">
+        <f>7196865-E4-E5-E6</f>
+        <v>1879519</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F22" si="0">C3-D3-E3</f>
+        <v>346034</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H22" si="1">F3*(1-G3)</f>
+        <v>259525.5</v>
+      </c>
+      <c r="I3" s="17">
+        <f>12730450-I4-I5-I6</f>
+        <v>3003990</v>
+      </c>
+      <c r="J3" s="17">
+        <f>552541-J4-J5-J6</f>
+        <v>122729</v>
+      </c>
+      <c r="K3" s="16">
+        <f>6591450-K4-K5-K6</f>
+        <v>2393635</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L22" si="2">P3-P4</f>
+        <v>-683555</v>
+      </c>
+      <c r="M3" s="16">
+        <f>H3+I3+J3-K3-L3</f>
+        <v>1676164.5</v>
+      </c>
+      <c r="N3" s="17">
+        <v>30468100</v>
+      </c>
+      <c r="O3" s="17">
+        <v>21007810</v>
+      </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P23" si="3">N3-O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+        <v>9460290</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>100330165</v>
+      </c>
+      <c r="R3" s="17">
+        <v>53503752</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="17">
+        <v>69862065</v>
+      </c>
+      <c r="U3" s="17">
+        <v>25818603</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="C4" s="17">
+        <v>9066171</v>
+      </c>
+      <c r="D4" s="17">
+        <v>9002045</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1856087</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>-1791961</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="1"/>
+        <v>-1343970.75</v>
+      </c>
+      <c r="I4" s="17">
+        <f>9726460-I5-I6</f>
+        <v>3100469</v>
+      </c>
+      <c r="J4" s="17">
+        <f>429812-J5-J6</f>
+        <v>150902</v>
+      </c>
+      <c r="K4" s="17">
+        <f>4197815-K5-K6</f>
+        <v>1484258</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" si="2"/>
+        <v>259146</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M22" si="4">H4+I4+J4-K4-L4</f>
+        <v>163996.25</v>
+      </c>
+      <c r="N4" s="17">
+        <v>30393967</v>
+      </c>
+      <c r="O4" s="17">
+        <v>20250122</v>
+      </c>
       <c r="P4" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+        <f>N4-O4</f>
+        <v>10143845</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="C5" s="17">
+        <v>7305933</v>
+      </c>
+      <c r="D5" s="17">
+        <v>8483761</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1704256</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>-2882084</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="1"/>
+        <v>-2161563</v>
+      </c>
+      <c r="I5" s="16">
+        <f>6625991-I6</f>
+        <v>3273961</v>
+      </c>
+      <c r="J5" s="16">
+        <f>278910-J6</f>
+        <v>152675</v>
+      </c>
+      <c r="K5" s="16">
+        <f>2713557-K6</f>
+        <v>965770</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="2"/>
+        <v>-1673185</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="4"/>
+        <v>1972488</v>
+      </c>
+      <c r="N5" s="17">
+        <v>29661132</v>
+      </c>
+      <c r="O5" s="17">
+        <v>19776433</v>
+      </c>
       <c r="P5" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+        <f>N5-O5</f>
+        <v>9884699</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,613 +2206,2207 @@
       <c r="D6" s="12">
         <v>6733410</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>1757003</v>
       </c>
-      <c r="F6" s="9">
-        <f>C6-D6-E6</f>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
         <v>-3402302</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>-2466668.9499999997</v>
-      </c>
-      <c r="I6" s="15">
-        <v>72714</v>
-      </c>
-      <c r="J6" s="15">
-        <v>54954</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="G6" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>-2551726.5</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3352030</v>
+      </c>
+      <c r="J6" s="17">
+        <v>126235</v>
+      </c>
+      <c r="K6" s="17">
         <v>1747787</v>
       </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="9" t="e">
+      <c r="L6" s="16">
+        <f t="shared" si="2"/>
+        <v>2668248</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="4"/>
+        <v>-3489496.5</v>
+      </c>
+      <c r="N6" s="17">
+        <v>28834021</v>
+      </c>
+      <c r="O6" s="17">
+        <v>17276137</v>
+      </c>
+      <c r="P6" s="9">
         <f>N6-O6</f>
-        <v>#VALUE!</v>
+        <v>11557884</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C7" s="17">
+        <f>44621568-C8-C9-C10</f>
+        <v>7672031</v>
+      </c>
+      <c r="D7" s="17">
+        <f>28993713-D8-D9-D10</f>
+        <v>7648613</v>
+      </c>
+      <c r="E7" s="16">
+        <f>8818438-E8-E9-E10</f>
+        <v>1935647</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>-1912229</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="1"/>
+        <v>-1434171.75</v>
+      </c>
+      <c r="I7" s="16">
+        <f>13045058-I8-I9-I10</f>
+        <v>3477301</v>
+      </c>
+      <c r="J7" s="16">
+        <f>779609-J8-J9-J10</f>
+        <v>157144</v>
+      </c>
+      <c r="K7" s="16">
+        <f>19649909-K8-K9-K10</f>
+        <v>5106551</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="2"/>
+        <v>-4624162</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
+        <v>1717884.25</v>
+      </c>
+      <c r="N7" s="17">
+        <v>28733332</v>
+      </c>
+      <c r="O7" s="17">
+        <v>19843696</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>8889636</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="C8" s="17">
+        <v>10982883</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7117303</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2205057</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>1660523</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>1245392.25</v>
+      </c>
+      <c r="I8" s="17">
+        <f>9567757-I9-I10</f>
+        <v>3295534</v>
+      </c>
+      <c r="J8" s="17">
+        <f>622465-J9-J10</f>
+        <v>177823</v>
+      </c>
+      <c r="K8" s="16">
+        <f>14543358-K9-K10</f>
+        <v>4021334</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="2"/>
+        <v>663827</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>33588.25</v>
+      </c>
+      <c r="N8" s="17">
+        <v>31896913</v>
+      </c>
+      <c r="O8" s="17">
+        <v>18383115</v>
+      </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+        <v>13513798</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="C9" s="17">
+        <v>13811001</v>
+      </c>
+      <c r="D9" s="17">
+        <v>7473340</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2140435</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>4197226</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>3147919.5</v>
+      </c>
+      <c r="I9" s="17">
+        <f>6272223-I10</f>
+        <v>3177666</v>
+      </c>
+      <c r="J9" s="16">
+        <f>444642-J10</f>
+        <v>221631</v>
+      </c>
+      <c r="K9" s="16">
+        <f>10522024-K10</f>
+        <v>5490109</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="2"/>
+        <v>1741457</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
+        <v>-684349.5</v>
+      </c>
+      <c r="N9" s="17">
+        <v>29719276</v>
+      </c>
+      <c r="O9" s="17">
+        <v>16869305</v>
+      </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+        <v>12849971</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>12155653</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>6754457</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>2537299</v>
       </c>
-      <c r="F10" s="8">
-        <f>C10-D10-E10</f>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
         <v>2863897</v>
       </c>
-      <c r="G10" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>2076325.325</v>
-      </c>
-      <c r="I10" s="15">
-        <v>62735</v>
-      </c>
-      <c r="J10" s="15">
-        <v>134919</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="G10" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>2147922.75</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3094557</v>
+      </c>
+      <c r="J10" s="17">
+        <v>223011</v>
+      </c>
+      <c r="K10" s="17">
         <v>5031915</v>
       </c>
-      <c r="L10" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="L10" s="16">
+        <f t="shared" si="2"/>
+        <v>-1063166</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="4"/>
+        <v>1496741.75</v>
+      </c>
+      <c r="N10" s="17">
+        <v>27767761</v>
+      </c>
+      <c r="O10" s="17">
+        <v>16659247</v>
+      </c>
       <c r="P10" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+        <v>11108514</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="34" x14ac:dyDescent="0.45">
+      <c r="C11" s="16">
+        <f>42997792-C12-C13-C14</f>
+        <v>12376609</v>
+      </c>
+      <c r="D11" s="16">
+        <f>24045600-D12-D13-D14</f>
+        <v>6323463</v>
+      </c>
+      <c r="E11" s="16">
+        <f>6541852-E12-E13-E14</f>
+        <v>1833622</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>4219524</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>3164643</v>
+      </c>
+      <c r="I11" s="17">
+        <f>9536696-I12-I13-I14</f>
+        <v>2506924</v>
+      </c>
+      <c r="J11" s="16">
+        <f>795933-J12-J13-J14</f>
+        <v>219462</v>
+      </c>
+      <c r="K11" s="17">
+        <f>13370055-K12-K13-K14</f>
+        <v>4214523</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="2"/>
+        <v>-2193221</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="4"/>
+        <v>3869727</v>
+      </c>
+      <c r="N11" s="17">
+        <v>26907075</v>
+      </c>
+      <c r="O11" s="17">
+        <v>14735395</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>12171680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="C12" s="17">
+        <v>11805324</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5974270</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1659233</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>4171821</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>3128865.75</v>
+      </c>
+      <c r="I12" s="16">
+        <f>7029772-I13-I14</f>
+        <v>2415103</v>
+      </c>
+      <c r="J12" s="16">
+        <f>576471-J13-J14</f>
+        <v>213481</v>
+      </c>
+      <c r="K12" s="16">
+        <f>9155532-K13-K14</f>
+        <v>2394525</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="2"/>
+        <v>3452268</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="4"/>
+        <v>-89343.25</v>
+      </c>
+      <c r="N12" s="17">
+        <v>24910504</v>
+      </c>
+      <c r="O12" s="17">
+        <v>10545603</v>
+      </c>
       <c r="P12" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+        <v>14364901</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="C13" s="17">
+        <v>10321671</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5982227</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1644870</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>2694574</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>2020930.5</v>
+      </c>
+      <c r="I13" s="16">
+        <f>4614669-I14</f>
+        <v>2343666</v>
+      </c>
+      <c r="J13" s="16">
+        <f>362990-J14</f>
+        <v>187312</v>
+      </c>
+      <c r="K13" s="16">
+        <f>6761007-K14</f>
+        <v>2591970</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="2"/>
+        <v>2358748</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="4"/>
+        <v>-398809.5</v>
+      </c>
+      <c r="N13" s="17">
+        <v>20099557</v>
+      </c>
+      <c r="O13" s="17">
+        <v>9186924</v>
+      </c>
       <c r="P13" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+        <v>10912633</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="C14" s="17">
+        <v>8494188</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5765640</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1404127</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>1324421</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>993315.75</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2271003</v>
+      </c>
+      <c r="J14" s="17">
+        <v>175678</v>
+      </c>
+      <c r="K14" s="17">
+        <v>4169037</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="2"/>
+        <v>1055292</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>-1784332.25</v>
+      </c>
+      <c r="N14" s="17">
+        <v>18384877</v>
+      </c>
+      <c r="O14" s="17">
+        <v>9830992</v>
+      </c>
       <c r="P14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+        <f>N14-O14</f>
+        <v>8553885</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="C15" s="17">
+        <f>31900418-C16-C17-C18</f>
+        <v>7966225</v>
+      </c>
+      <c r="D15" s="17">
+        <f>21089789-D16-D17-D18</f>
+        <v>5542146</v>
+      </c>
+      <c r="E15" s="17">
+        <f>5798005-E16-E17-E18</f>
+        <v>1465182</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>958897</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>719172.75</v>
+      </c>
+      <c r="I15" s="16">
+        <f>8515134-I16-I17-I18</f>
+        <v>2187024</v>
+      </c>
+      <c r="J15" s="16">
+        <f>960550-J16-J17-J18</f>
+        <v>255619</v>
+      </c>
+      <c r="K15" s="16">
+        <f>10048798-K16-K17-K18</f>
+        <v>3201128</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="2"/>
+        <v>-685999</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="4"/>
+        <v>646686.75</v>
+      </c>
+      <c r="N15" s="17">
+        <v>16570953</v>
+      </c>
+      <c r="O15" s="17">
+        <v>9072360</v>
+      </c>
       <c r="P15" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+        <v>7498593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="C16" s="17">
+        <v>8128767</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5283294</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1543561</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>1301912</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>976434</v>
+      </c>
+      <c r="I16" s="16">
+        <f>6328110-I17-I18</f>
+        <v>2145761</v>
+      </c>
+      <c r="J16" s="16">
+        <f>704931-J17-J18</f>
+        <v>273245</v>
+      </c>
+      <c r="K16" s="16">
+        <f>6847670-K17-K18</f>
+        <v>2233591</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="2"/>
+        <v>417239</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="4"/>
+        <v>744610</v>
+      </c>
+      <c r="N16" s="17">
+        <v>17036210</v>
+      </c>
+      <c r="O16" s="17">
+        <v>8851618</v>
+      </c>
       <c r="P16" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+        <v>8184592</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="C17" s="17">
+        <v>8606534</v>
+      </c>
+      <c r="D17" s="17">
+        <v>5259991</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1397490</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>1949053</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>1461789.75</v>
+      </c>
+      <c r="I17" s="16">
+        <f>4182349-I18</f>
+        <v>2112741</v>
+      </c>
+      <c r="J17" s="16">
+        <f>431686-J18</f>
+        <v>241526</v>
+      </c>
+      <c r="K17" s="16">
+        <f>4614079-K18</f>
+        <v>2306258</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="2"/>
+        <v>674843</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="4"/>
+        <v>834955.75</v>
+      </c>
+      <c r="N17" s="17">
+        <v>17362825</v>
+      </c>
+      <c r="O17" s="17">
+        <v>9595472</v>
+      </c>
       <c r="P17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+        <v>7767353</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="C18" s="17">
+        <v>7198892</v>
+      </c>
+      <c r="D18" s="17">
+        <v>5004358</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1391772</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>802762</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>602071.5</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2069608</v>
+      </c>
+      <c r="J18" s="17">
+        <v>190160</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2307821</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="2"/>
+        <v>508941</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="4"/>
+        <v>45077.5</v>
+      </c>
+      <c r="N18" s="17">
+        <v>15799759</v>
+      </c>
+      <c r="O18" s="17">
+        <v>8707249</v>
+      </c>
       <c r="P18" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+        <v>7092510</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
+      <c r="C19" s="17">
+        <f>26990733-C20-C21-C22</f>
+        <v>6927111</v>
+      </c>
+      <c r="D19" s="16">
+        <f>18825275-D20-D21-D22</f>
+        <v>5274304</v>
+      </c>
+      <c r="E19" s="16">
+        <f>5452740-E20-E21-E22</f>
+        <v>1416770</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>236037</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="1"/>
+        <v>177027.75</v>
+      </c>
+      <c r="I19" s="17">
+        <f>7511794-I20-I21-I22</f>
+        <v>2022063</v>
+      </c>
+      <c r="J19" s="16">
+        <f>795169-J20-J21-J22</f>
+        <v>169706</v>
+      </c>
+      <c r="K19" s="16">
+        <f>12575458-K20-K21-K22</f>
+        <v>3166879</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="2"/>
+        <v>-764506</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="4"/>
+        <v>-33576.25</v>
+      </c>
+      <c r="N19" s="17">
+        <v>14457602</v>
+      </c>
+      <c r="O19" s="17">
+        <v>7874033</v>
+      </c>
       <c r="P19" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
+        <v>6583569</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="C20" s="17">
+        <v>6838766</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5023127</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1343078</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>472561</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="1"/>
+        <v>354420.75</v>
+      </c>
+      <c r="I20" s="16">
+        <f>5489731-I21-I22</f>
+        <v>1922231</v>
+      </c>
+      <c r="J20" s="16">
+        <f>625463-J21-J22</f>
+        <v>177450</v>
+      </c>
+      <c r="K20" s="17">
+        <f>9408579-K21-K22</f>
+        <v>2401985</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="2"/>
+        <v>618096</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="4"/>
+        <v>-565979.25</v>
+      </c>
+      <c r="N20" s="17">
+        <v>14175499</v>
+      </c>
+      <c r="O20" s="17">
+        <v>6827424</v>
+      </c>
       <c r="P20" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+        <v>7348075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="C21" s="17">
+        <v>6452201</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4435389</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1379182</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>637630</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="1"/>
+        <v>478222.5</v>
+      </c>
+      <c r="I21" s="16">
+        <f>3567500-I22</f>
+        <v>1817349</v>
+      </c>
+      <c r="J21" s="16">
+        <f>448013-J22</f>
+        <v>226915</v>
+      </c>
+      <c r="K21" s="16">
+        <f>7006594-K22</f>
+        <v>3947703</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="2"/>
+        <v>1343465</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="4"/>
+        <v>-2768681.5</v>
+      </c>
+      <c r="N21" s="17">
+        <v>14242750</v>
+      </c>
+      <c r="O21" s="17">
+        <v>7512771</v>
+      </c>
       <c r="P21" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+        <v>6729979</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="C22" s="17">
+        <v>6772655</v>
+      </c>
+      <c r="D22" s="17">
+        <v>4092455</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1313710</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>1366490</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="1"/>
+        <v>1024867.5</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1750151</v>
+      </c>
+      <c r="J22" s="17">
+        <v>221098</v>
+      </c>
+      <c r="K22" s="17">
+        <v>3058891</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="2"/>
+        <v>-1475780</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="4"/>
+        <v>1413005.5</v>
+      </c>
+      <c r="N22" s="17">
+        <v>18618236</v>
+      </c>
+      <c r="O22" s="17">
+        <v>13231722</v>
+      </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+        <v>5386514</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="1"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17">
+        <v>19894146</v>
+      </c>
+      <c r="O23" s="17">
+        <v>13031852</v>
+      </c>
       <c r="P23" s="11">
         <f t="shared" si="3"/>
+        <v>6862294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C932224-3336-9D4D-9CA8-86E1706224EC}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="B2:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20">
+        <f>162663579-C4-C5-C6</f>
+        <v>41632528</v>
+      </c>
+      <c r="D3" s="20">
+        <f>129179183-D4-D5-D6</f>
+        <v>33224889</v>
+      </c>
+      <c r="E3" s="20">
+        <f>18357495-E4-E5-E6</f>
+        <v>4933167</v>
+      </c>
+      <c r="F3" s="21">
+        <f>C3-D3-E3</f>
+        <v>3474472</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H22" si="0">F3*(1-G3)</f>
+        <v>2605854</v>
+      </c>
+      <c r="I3" s="20">
+        <f>3278328-I4-I5-I6</f>
+        <v>839693</v>
+      </c>
+      <c r="J3" s="21">
+        <f>1662765-J4-J5-J6</f>
+        <v>390275</v>
+      </c>
+      <c r="K3" s="21">
+        <f>7066623-K4-K5-K6</f>
+        <v>3127238</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" ref="L3:L22" si="1">P3-P4</f>
+        <v>639475</v>
+      </c>
+      <c r="M3" s="21">
+        <f>H3+I3+J3-K3-L3</f>
+        <v>69109</v>
+      </c>
+      <c r="N3" s="20">
+        <v>101724717</v>
+      </c>
+      <c r="O3" s="20">
+        <v>73362103</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P21" si="2">N3-O3</f>
+        <v>28362614</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>282463355</v>
+      </c>
+      <c r="R3" s="20">
+        <v>101809440</v>
+      </c>
+      <c r="S3" s="17">
+        <v>180653915</v>
+      </c>
+      <c r="T3" s="17">
+        <v>180738638</v>
+      </c>
+      <c r="U3" s="17">
+        <v>107291812</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>41002663</v>
+      </c>
+      <c r="D4" s="20">
+        <v>32541305</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4639559</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F22" si="3">C4-D4-E4</f>
+        <v>3821799</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>2866349.25</v>
+      </c>
+      <c r="I4" s="20">
+        <f>2438635-I5-I6</f>
+        <v>815329</v>
+      </c>
+      <c r="J4" s="20">
+        <f>1272490-J5-J6</f>
+        <v>408952</v>
+      </c>
+      <c r="K4" s="21">
+        <f>3939385-K5-K6</f>
+        <v>1649704</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="1"/>
+        <v>2150259</v>
+      </c>
+      <c r="M4" s="21">
+        <f>H4+I4+J4-K4-L4</f>
+        <v>290667.25</v>
+      </c>
+      <c r="N4" s="20">
+        <v>101136523</v>
+      </c>
+      <c r="O4" s="20">
+        <v>73413384</v>
+      </c>
+      <c r="P4" s="23">
+        <f>N4-O4</f>
+        <v>27723139</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <v>42249695</v>
+      </c>
+      <c r="D5" s="20">
+        <v>33356309</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4655455</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>4237931</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>3178448.25</v>
+      </c>
+      <c r="I5" s="20">
+        <f>1623306-I6</f>
+        <v>821894</v>
+      </c>
+      <c r="J5" s="21">
+        <f>863538-J6</f>
+        <v>415853</v>
+      </c>
+      <c r="K5" s="21">
+        <f>2289681-K6</f>
+        <v>1657282</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="1"/>
+        <v>635875</v>
+      </c>
+      <c r="M5" s="21">
+        <f>H5+I5+J5-K5-L5</f>
+        <v>2123038.25</v>
+      </c>
+      <c r="N5" s="20">
+        <v>101258093</v>
+      </c>
+      <c r="O5" s="20">
+        <v>75685213</v>
+      </c>
+      <c r="P5" s="23">
+        <f>N5-O5</f>
+        <v>25572880</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="20">
+        <v>37778693</v>
+      </c>
+      <c r="D6" s="20">
+        <v>30056680</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4129314</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="3"/>
+        <v>3592699</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>2694524.25</v>
+      </c>
+      <c r="I6" s="20">
+        <v>801412</v>
+      </c>
+      <c r="J6" s="20">
+        <v>447685</v>
+      </c>
+      <c r="K6" s="20">
+        <v>632399</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="1"/>
+        <v>2784204</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6:M20" si="4">H6+I6+J6-K6-L6</f>
+        <v>527018.25</v>
+      </c>
+      <c r="N6" s="20">
+        <v>101518423</v>
+      </c>
+      <c r="O6" s="20">
+        <v>76581418</v>
+      </c>
+      <c r="P6" s="23">
+        <f>N6-O6</f>
+        <v>24937005</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21">
+        <f>142151469-C8-C9-C10</f>
+        <v>38147563</v>
+      </c>
+      <c r="D7" s="20">
+        <f>113879569-D8-D9-D10</f>
+        <v>30406364</v>
+      </c>
+      <c r="E7" s="20">
+        <f>18446972-E8-E9-E10</f>
+        <v>4376814</v>
+      </c>
+      <c r="F7" s="21">
+        <f>C7-D7-E7</f>
+        <v>3364385</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>2523288.75</v>
+      </c>
+      <c r="I7" s="21">
+        <f>3175285-I8-I9-I10</f>
+        <v>869079</v>
+      </c>
+      <c r="J7" s="21">
+        <f>1866935-J8-J9-J10</f>
+        <v>540483</v>
+      </c>
+      <c r="K7" s="21">
+        <f>4356701-K8-K9-K10</f>
+        <v>2047601</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="1"/>
+        <v>-1340313</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="4"/>
+        <v>3225562.75</v>
+      </c>
+      <c r="N7" s="20">
+        <v>96389273</v>
+      </c>
+      <c r="O7" s="20">
+        <v>74236472</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="2"/>
+        <v>22152801</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20">
+        <v>37705442</v>
+      </c>
+      <c r="D8" s="20">
+        <v>30348251</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5805372</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="3"/>
+        <v>1551819</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>1163864.25</v>
+      </c>
+      <c r="I8" s="20">
+        <f>2306206-I9-I10</f>
+        <v>753679</v>
+      </c>
+      <c r="J8" s="20">
+        <f>1326452-J9-J10</f>
+        <v>442474</v>
+      </c>
+      <c r="K8" s="21">
+        <f>2309100-K9-K10</f>
+        <v>859164</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="1"/>
+        <v>-378596</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="4"/>
+        <v>1879449.25</v>
+      </c>
+      <c r="N8" s="20">
+        <v>100638897</v>
+      </c>
+      <c r="O8" s="20">
+        <v>77145783</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="2"/>
+        <v>23493114</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20">
+        <v>35999896</v>
+      </c>
+      <c r="D9" s="20">
+        <v>28599592</v>
+      </c>
+      <c r="E9" s="20">
+        <v>4420510</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="3"/>
+        <v>2979794</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>2234845.5</v>
+      </c>
+      <c r="I9" s="20">
+        <f>1552527-I10</f>
+        <v>790266</v>
+      </c>
+      <c r="J9" s="21">
+        <f>883978-J10</f>
+        <v>451024</v>
+      </c>
+      <c r="K9" s="21">
+        <f>1449936-K10</f>
+        <v>820624</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="1"/>
+        <v>-439003</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="4"/>
+        <v>3094514.5</v>
+      </c>
+      <c r="N9" s="20">
+        <v>95633011</v>
+      </c>
+      <c r="O9" s="20">
+        <v>71761301</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="2"/>
+        <v>23871710</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>30298568</v>
+      </c>
+      <c r="D10" s="20">
+        <v>24525362</v>
+      </c>
+      <c r="E10" s="20">
+        <v>3844276</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="3"/>
+        <v>1928930</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>1446697.5</v>
+      </c>
+      <c r="I10" s="20">
+        <v>762261</v>
+      </c>
+      <c r="J10" s="20">
+        <v>432954</v>
+      </c>
+      <c r="K10" s="20">
+        <v>629312</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="1"/>
+        <v>-17866</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="4"/>
+        <v>2030466.5</v>
+      </c>
+      <c r="N10" s="20">
+        <v>88596063</v>
+      </c>
+      <c r="O10" s="20">
+        <v>64285350</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="2"/>
+        <v>24310713</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20">
+        <f>117610626-C12-C13-C14</f>
+        <v>31026469</v>
+      </c>
+      <c r="D11" s="20">
+        <f>95680131-D12-D13-D14</f>
+        <v>25097499</v>
+      </c>
+      <c r="E11" s="21">
+        <f>15251546-E12-E13-E14</f>
+        <v>4399310</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="3"/>
+        <v>1529660</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>1147245</v>
+      </c>
+      <c r="I11" s="20">
+        <f>2932516-I12-I13-I14</f>
+        <v>789525</v>
+      </c>
+      <c r="J11" s="21">
+        <f>1617823-J12-J13-J14</f>
+        <v>462110</v>
+      </c>
+      <c r="K11" s="20">
+        <f>4382774-K12-K13-K14</f>
+        <v>1687729</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="1"/>
+        <v>-3769674</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="4"/>
+        <v>4480825</v>
+      </c>
+      <c r="N11" s="20">
+        <v>88565366</v>
+      </c>
+      <c r="O11" s="20">
+        <v>64236787</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="2"/>
+        <v>24328579</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="20">
+        <v>28867220</v>
+      </c>
+      <c r="D12" s="20">
+        <v>23633534</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3627013</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="3"/>
+        <v>1606673</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>1205004.75</v>
+      </c>
+      <c r="I12" s="21">
+        <f>2142991-I13-I14</f>
+        <v>742208</v>
+      </c>
+      <c r="J12" s="21">
+        <f>1155713-J13-J14</f>
+        <v>394637</v>
+      </c>
+      <c r="K12" s="21">
+        <f>2695045-K13-K14</f>
+        <v>1095966</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="1"/>
+        <v>1011331</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="4"/>
+        <v>234552.75</v>
+      </c>
+      <c r="N12" s="20">
+        <v>87567649</v>
+      </c>
+      <c r="O12" s="20">
+        <v>59469396</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="2"/>
+        <v>28098253</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20">
+        <v>30326066</v>
+      </c>
+      <c r="D13" s="20">
+        <v>24594797</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3845268</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="3"/>
+        <v>1886001</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>1414500.75</v>
+      </c>
+      <c r="I13" s="21">
+        <f>1400783-I14</f>
+        <v>702285</v>
+      </c>
+      <c r="J13" s="21">
+        <f>761076-J14</f>
+        <v>375078</v>
+      </c>
+      <c r="K13" s="21">
+        <f>1599079-K14</f>
+        <v>924526</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="1"/>
+        <v>3072695</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="4"/>
+        <v>-1505357.25</v>
+      </c>
+      <c r="N13" s="20">
+        <v>85512798</v>
+      </c>
+      <c r="O13" s="20">
+        <v>58425876</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="2"/>
+        <v>27086922</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20">
+        <v>27390871</v>
+      </c>
+      <c r="D14" s="20">
+        <v>22354301</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3379955</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="3"/>
+        <v>1656615</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>1242461.25</v>
+      </c>
+      <c r="I14" s="20">
+        <v>698498</v>
+      </c>
+      <c r="J14" s="20">
+        <v>385998</v>
+      </c>
+      <c r="K14" s="20">
+        <v>674553</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="1"/>
+        <v>-212602</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="4"/>
+        <v>1865006.25</v>
+      </c>
+      <c r="N14" s="20">
+        <v>85547213</v>
+      </c>
+      <c r="O14" s="20">
+        <v>61532986</v>
+      </c>
+      <c r="P14" s="23">
+        <f>N14-O14</f>
+        <v>24014227</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20">
+        <f>103997601-C16-C17-C18</f>
+        <v>29243350</v>
+      </c>
+      <c r="D15" s="20">
+        <f>85515931-D16-D17-D18</f>
+        <v>23864084</v>
+      </c>
+      <c r="E15" s="20">
+        <f>16086999-E16-E17-E18</f>
+        <v>4124869</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="3"/>
+        <v>1254397</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>940797.75</v>
+      </c>
+      <c r="I15" s="21">
+        <f>2739185-I16-I17-I18</f>
+        <v>705585</v>
+      </c>
+      <c r="J15" s="21">
+        <f>1435860-J16-J17-J18</f>
+        <v>363224</v>
+      </c>
+      <c r="K15" s="21">
+        <f>4670748-K16-K17-K18</f>
+        <v>1726094</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="1"/>
+        <v>178589</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="4"/>
+        <v>104923.75</v>
+      </c>
+      <c r="N15" s="20">
+        <v>83686357</v>
+      </c>
+      <c r="O15" s="20">
+        <v>59459528</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="2"/>
+        <v>24226829</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20">
+        <v>27575812</v>
+      </c>
+      <c r="D16" s="20">
+        <v>22450545</v>
+      </c>
+      <c r="E16" s="20">
+        <v>5439090</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="3"/>
+        <v>-313823</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>-235367.25</v>
+      </c>
+      <c r="I16" s="20">
+        <f>2033600-I17-I18</f>
+        <v>700203</v>
+      </c>
+      <c r="J16" s="21">
+        <f>1072636-J17-J18</f>
+        <v>363357</v>
+      </c>
+      <c r="K16" s="21">
+        <f>2944654-K17-K18</f>
+        <v>991535</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="1"/>
+        <v>-763799</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="4"/>
+        <v>600456.75</v>
+      </c>
+      <c r="N16" s="20">
+        <v>81868709</v>
+      </c>
+      <c r="O16" s="20">
+        <v>57820469</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="2"/>
+        <v>24048240</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="20">
+        <v>21858991</v>
+      </c>
+      <c r="D17" s="20">
+        <v>18147164</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3121506</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="3"/>
+        <v>590321</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>442740.75</v>
+      </c>
+      <c r="I17" s="21">
+        <f>1333397-I18</f>
+        <v>673110</v>
+      </c>
+      <c r="J17" s="21">
+        <f>709279-J18</f>
+        <v>363159</v>
+      </c>
+      <c r="K17" s="21">
+        <f>1953119-K18</f>
+        <v>1286387</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="1"/>
+        <v>2795344</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="4"/>
+        <v>-2602721.25</v>
+      </c>
+      <c r="N17" s="20">
+        <v>79025897</v>
+      </c>
+      <c r="O17" s="20">
+        <v>54213858</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="2"/>
+        <v>24812039</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="20">
+        <v>25319448</v>
+      </c>
+      <c r="D18" s="20">
+        <v>21054138</v>
+      </c>
+      <c r="E18" s="20">
+        <v>3401534</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
+        <v>863776</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>647832</v>
+      </c>
+      <c r="I18" s="20">
+        <v>660287</v>
+      </c>
+      <c r="J18" s="20">
+        <v>346120</v>
+      </c>
+      <c r="K18" s="20">
+        <v>666732</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="1"/>
+        <v>-752082</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="4"/>
+        <v>1739589</v>
+      </c>
+      <c r="N18" s="20">
+        <v>76223367</v>
+      </c>
+      <c r="O18" s="20">
+        <v>54206672</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="2"/>
+        <v>22016695</v>
+      </c>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="20">
+        <f>103997601-C20-C21-C22</f>
+        <v>26075316</v>
+      </c>
+      <c r="D19" s="20">
+        <f>85515931-D20-D21-D22</f>
+        <v>20557734</v>
+      </c>
+      <c r="E19" s="21">
+        <f>16086999-E20-E21-E22</f>
+        <v>5564027</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="3"/>
+        <v>-46445</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>-34833.75</v>
+      </c>
+      <c r="I19" s="20">
+        <f>2739185-I20-I21-I22</f>
+        <v>866622</v>
+      </c>
+      <c r="J19" s="21">
+        <f>1435860-J20-J21-J22</f>
+        <v>474342</v>
+      </c>
+      <c r="K19" s="21">
+        <f>4670748-K20-K21-K22</f>
+        <v>2470170</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="1"/>
+        <v>1158348</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" si="4"/>
+        <v>-2322387.75</v>
+      </c>
+      <c r="N19" s="20">
+        <v>76082873</v>
+      </c>
+      <c r="O19" s="20">
+        <v>53314096</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="2"/>
+        <v>22768777</v>
+      </c>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20">
+        <v>26968853</v>
+      </c>
+      <c r="D20" s="20">
+        <v>22540467</v>
+      </c>
+      <c r="E20" s="20">
+        <v>4049866</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="3"/>
+        <v>378520</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>283890</v>
+      </c>
+      <c r="I20" s="21">
+        <f>1872563-I21-I22</f>
+        <v>643612</v>
+      </c>
+      <c r="J20" s="21">
+        <f>961518-J21-J22</f>
+        <v>325206</v>
+      </c>
+      <c r="K20" s="20">
+        <f>2200578-K21-K22</f>
+        <v>894671</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="1"/>
+        <v>-5091689</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="4"/>
+        <v>5449726</v>
+      </c>
+      <c r="N20" s="20">
+        <v>75868279</v>
+      </c>
+      <c r="O20" s="20">
+        <v>54257850</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="2"/>
+        <v>21610429</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="20">
+        <v>26966353</v>
+      </c>
+      <c r="D21" s="20">
+        <v>22343313</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3385315</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="3"/>
+        <v>1237725</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>928293.75</v>
+      </c>
+      <c r="I21" s="21">
+        <f>1228951-I22</f>
+        <v>626193</v>
+      </c>
+      <c r="J21" s="21">
+        <f>636312-J22</f>
+        <v>321945</v>
+      </c>
+      <c r="K21" s="21">
+        <f>1305907-K22</f>
+        <v>760945</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="1"/>
+        <v>1494211</v>
+      </c>
+      <c r="M21" s="21">
+        <f>H21+I21+J21-K21-L21</f>
+        <v>-378724.25</v>
+      </c>
+      <c r="N21" s="20">
+        <v>77167806</v>
+      </c>
+      <c r="O21" s="20">
+        <v>50465688</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="2"/>
+        <v>26702118</v>
+      </c>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20">
+        <v>23987079</v>
+      </c>
+      <c r="D22" s="20">
+        <v>20074417</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3087791</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="3"/>
+        <v>824871</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>618653.25</v>
+      </c>
+      <c r="I22" s="20">
+        <v>602758</v>
+      </c>
+      <c r="J22" s="20">
+        <v>314367</v>
+      </c>
+      <c r="K22" s="20">
+        <v>544962</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="1"/>
+        <v>1638220</v>
+      </c>
+      <c r="M22" s="21">
+        <f>H22+I22+J22-K22-L22</f>
+        <v>-647403.75</v>
+      </c>
+      <c r="N22" s="20">
+        <v>73668526</v>
+      </c>
+      <c r="O22" s="20">
+        <v>48460619</v>
+      </c>
+      <c r="P22" s="23">
+        <f>N22-O22</f>
+        <v>25207907</v>
+      </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="20">
+        <v>73008101</v>
+      </c>
+      <c r="O23" s="20">
+        <v>49438414</v>
+      </c>
+      <c r="P23" s="23">
+        <f>N23-O23</f>
+        <v>23569687</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기업정보.xlsx
+++ b/기업정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hw/서강대학부자료/ValuePoint/DCF_Basic_firmValuation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKT01\Desktop\밸류포인트\DCF_Basic_firmValuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFFB790-75CB-1845-862E-24F2647F1AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314FCE39-5A15-4FD6-8A9A-4BEFFC476167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2820" windowWidth="16000" windowHeight="25600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41145" yWindow="1140" windowWidth="12795" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="005930" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,11 +689,11 @@
   </sheetPr>
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -715,7 +715,7 @@
     <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -777,7 +777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>16508663</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +904,7 @@
         <v>132813420</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
         <v>133194735</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>140125729</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>165594968</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>152925223</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>141905381</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>130046052</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>130921055</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>118657073</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>119045891</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>122611228</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>130588508</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>124273124</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>121976458</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>117602496</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>122738942</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>114124207</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>110034433</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1894,25 +1894,25 @@
         <v>105615914</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
     </row>
@@ -1929,11 +1929,11 @@
   </sheetPr>
   <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -1951,7 +1951,7 @@
     <col min="20" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>25818603</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>10143845</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>9884699</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>8889636</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>13513798</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>12849971</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>11108514</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>12171680</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>14364901</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>10912633</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>8553885</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>7498593</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>8184592</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>7767353</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>7092510</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>6583569</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>7348075</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>6729979</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>5386514</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -3161,11 +3161,11 @@
   </sheetPr>
   <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -3176,7 +3176,7 @@
     <col min="17" max="21" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3305,13 +3305,13 @@
         <v>180653915</v>
       </c>
       <c r="T3" s="17">
-        <v>180738638</v>
+        <v>116171700</v>
       </c>
       <c r="U3" s="17">
         <v>107291812</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="24"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -4411,5 +4411,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>